--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\eclipse-workspace\exercise1\qaExercise1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B8CD69-90B9-4444-AF84-2F52622B96A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A02EC0-7A8C-48F9-9871-AC4EE92474D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="22770" windowHeight="11760" activeTab="2" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="22770" windowHeight="11760" activeTab="2" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="161">
   <si>
     <t>Scenario</t>
   </si>
@@ -415,13 +415,118 @@
   </si>
   <si>
     <t>Loged in</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Change address in adress field</t>
+  </si>
+  <si>
+    <t>Change last name in last-name field</t>
+  </si>
+  <si>
+    <t>Oke street 17</t>
+  </si>
+  <si>
+    <t>Change phone number in phpne-number field</t>
+  </si>
+  <si>
+    <t>change Zip code in Zip-code field</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Change city from dropdown list</t>
+  </si>
+  <si>
+    <t>Change country by sececting from dropdown list</t>
+  </si>
+  <si>
+    <t>There is no citys for other states</t>
+  </si>
+  <si>
+    <t>Press Save button</t>
+  </si>
+  <si>
+    <t>Changes are saved</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Verify if Password can be changed</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>Password321</t>
+  </si>
+  <si>
+    <t>In the New Password field enter new password (valid)</t>
+  </si>
+  <si>
+    <t>In the Current Password field enter current password value</t>
+  </si>
+  <si>
+    <t>In the Confirm Password field enter new password (valid)</t>
+  </si>
+  <si>
+    <t>geted from value attribute</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>Verify if Password can be changed with no conformation of password</t>
+  </si>
+  <si>
+    <t>In the Confirm Password field enter new password</t>
+  </si>
+  <si>
+    <t>Confirm Password Is Mandatory</t>
+  </si>
+  <si>
+    <t>Worning Message is dissplayed:</t>
+  </si>
+  <si>
+    <t>Confirm Password Must Be Same As Password.</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>Verify if Password can be changed with different conformation of password</t>
+  </si>
+  <si>
+    <t>Verify if Password can be changed with no Current password entered</t>
+  </si>
+  <si>
+    <t>Current Password Is Mandatory</t>
+  </si>
+  <si>
+    <t>Leave Current Password field empty</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>In the New Password field enter new password (valid) - same as in TC017</t>
+  </si>
+  <si>
+    <t>In the Confirm Password field enter new password (valid) - same as in TC017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +600,14 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -649,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,6 +873,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1587,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D80E559-8175-4698-AD02-0F20EBCBFC5D}">
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,10 +4584,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6FD613-A997-4E59-9696-4356B570E0EC}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,7 +4596,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
@@ -4515,15 +4635,17 @@
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="22"/>
       <c r="G2" s="7"/>
@@ -4532,6 +4654,9 @@
       <c r="A3" s="34"/>
       <c r="B3" s="23"/>
       <c r="C3" s="21"/>
+      <c r="D3" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="22"/>
       <c r="G3" s="7"/>
@@ -4541,6 +4666,9 @@
       <c r="C4" s="23" t="s">
         <v>40</v>
       </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="22"/>
       <c r="H4" s="7"/>
@@ -4550,18 +4678,25 @@
       <c r="C5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>55588520</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="22"/>
       <c r="G7" s="7"/>
@@ -4569,7 +4704,9 @@
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="22"/>
       <c r="G8" s="7"/>
@@ -4577,7 +4714,9 @@
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="4">
+        <v>12365</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="22"/>
       <c r="G9" s="7"/>
@@ -4585,6 +4724,9 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
+      <c r="D10" s="55" t="s">
+        <v>135</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
       <c r="G10" s="7"/>
@@ -4592,17 +4734,25 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="54" t="s">
+        <v>133</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
       <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
@@ -4615,9 +4765,18 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="7"/>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
@@ -4660,8 +4819,531 @@
       <c r="E19" s="7"/>
       <c r="F19" s="22"/>
     </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="22"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="22"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="57"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="22"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+      <c r="C45" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="57"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="34"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="22"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="23"/>
+      <c r="C58" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/TestCase.xlsx
+++ b/data/TestCase.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivana\eclipse-workspace\exercise1\qaExercise1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A02EC0-7A8C-48F9-9871-AC4EE92474D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9B14B-04EF-4C62-98AA-159CB965264E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="22770" windowHeight="11760" activeTab="2" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
+    <workbookView xWindow="375" yWindow="375" windowWidth="22770" windowHeight="11760" activeTab="1" xr2:uid="{E77B90CF-7136-4697-ADD7-10F0F9673A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
     <sheet name="Profile" sheetId="3" r:id="rId3"/>
-    <sheet name="BugReports" sheetId="4" r:id="rId4"/>
+    <sheet name="MyAddress" sheetId="5" r:id="rId4"/>
+    <sheet name="BugReports" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="188">
   <si>
     <t>Scenario</t>
   </si>
@@ -77,33 +78,18 @@
     <t>Test scenario 2:</t>
   </si>
   <si>
-    <t>MyAddres</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
-    <t>Verify if Address update can be done by changing some fields</t>
-  </si>
-  <si>
     <t>TC008</t>
   </si>
   <si>
-    <t>Verify if new Address can be added</t>
-  </si>
-  <si>
     <t>TC009</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify if Address can be deleted </t>
-  </si>
-  <si>
     <t>Test scenario 3:</t>
   </si>
   <si>
-    <t>PersonalInfo</t>
-  </si>
-  <si>
     <t>TC010</t>
   </si>
   <si>
@@ -116,21 +102,9 @@
     <t>TC011</t>
   </si>
   <si>
-    <t>Verify if Wishlist can be added</t>
-  </si>
-  <si>
-    <t>WishList</t>
-  </si>
-  <si>
-    <t>Verify if Wishlist can be deleted</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
-    <t>Verify if multiple Wishlist can be added</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -297,9 +271,6 @@
   </si>
   <si>
     <t>Reg96369</t>
-  </si>
-  <si>
-    <t>Verify if Sign up can be done with numbers</t>
   </si>
   <si>
     <t>Reg63636</t>
@@ -520,6 +491,117 @@
   </si>
   <si>
     <t>In the Confirm Password field enter new password (valid) - same as in TC017</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>Verify if Password can be changed with valid Confirm Password with added space</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password321</t>
+  </si>
+  <si>
+    <t>In the Confirm Password field enter new password (valid) with space on the beginning</t>
+  </si>
+  <si>
+    <t>go to Profile Page</t>
+  </si>
+  <si>
+    <t>go to MyAddress Page</t>
+  </si>
+  <si>
+    <t>in the Address Type field enter:</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>in the Name field enter:</t>
+  </si>
+  <si>
+    <t>Same Smith</t>
+  </si>
+  <si>
+    <t>from the Choose Your Country dropdown list choose:</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>from the Choose Your State dropdown list choose:</t>
+  </si>
+  <si>
+    <t>there is no states to choose from</t>
+  </si>
+  <si>
+    <t>from the Choose Your City dropdown list choose:</t>
+  </si>
+  <si>
+    <t>from the Choose Your Locality dropdown list choose:</t>
+  </si>
+  <si>
+    <t>there is no cities to choose from</t>
+  </si>
+  <si>
+    <t>there is no locality to choose from</t>
+  </si>
+  <si>
+    <t>in the Address Lane 1 field enter:</t>
+  </si>
+  <si>
+    <t>Orange street 12</t>
+  </si>
+  <si>
+    <t>in the Phone field enter:</t>
+  </si>
+  <si>
+    <t>Mango street 8536</t>
+  </si>
+  <si>
+    <t>press Save Changes</t>
+  </si>
+  <si>
+    <t>new addres is saved</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Bug name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Assign to</t>
+  </si>
+  <si>
+    <t>Repro rate</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Verify if Sign up can be done with numbers for First and Last Name</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>MyAddress</t>
   </si>
 </sst>
 </file>
@@ -762,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,6 +961,19 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1194,11 +1289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1F235C-D083-4086-A1BB-177F109E820E}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,13 +1329,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1292,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,23 +1401,24 @@
         <v>11</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" s="39"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15" s="42" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>87</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D15" s="34"/>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,10 +1428,10 @@
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,10 +1441,10 @@
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,10 +1454,10 @@
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,10 +1467,10 @@
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,10 +1480,10 @@
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="47" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,10 +1494,13 @@
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="52" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,10 +1511,13 @@
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="52" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,10 +1528,10 @@
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="53" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1443,19 +1545,24 @@
       <c r="A33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="39"/>
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1463,239 +1570,361 @@
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B37" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" t="s">
+      <c r="B39" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="47"/>
+      <c r="C48" s="43"/>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="6"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="7"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C122" s="6"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="7"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="7"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="7"/>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="6"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="6"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="6"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="6"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1706,9 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D80E559-8175-4698-AD02-0F20EBCBFC5D}">
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1731,25 +1958,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1757,22 +1984,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1780,7 +2007,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="21"/>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="22"/>
@@ -1789,10 +2016,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="22"/>
@@ -1801,24 +2028,24 @@
     <row r="5" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="22"/>
@@ -1828,7 +2055,7 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="22"/>
@@ -1838,7 +2065,7 @@
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="22"/>
@@ -1848,7 +2075,7 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
@@ -1858,7 +2085,7 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
@@ -1868,7 +2095,7 @@
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
@@ -1878,7 +2105,7 @@
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="22"/>
@@ -1888,7 +2115,7 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="22"/>
@@ -1898,7 +2125,7 @@
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="22"/>
@@ -1908,7 +2135,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="22"/>
@@ -1918,16 +2145,16 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,22 +2180,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I20" s="12"/>
     </row>
@@ -1976,7 +2203,7 @@
       <c r="B21" s="23"/>
       <c r="C21" s="21"/>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="22"/>
@@ -1984,10 +2211,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="22"/>
@@ -1995,19 +2222,19 @@
     <row r="23" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,29 +2260,29 @@
         <v>8</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="21"/>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="22"/>
@@ -2066,10 +2293,10 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="22"/>
@@ -2077,24 +2304,24 @@
     <row r="29" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
       <c r="C29" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
       <c r="C30" s="25"/>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="22"/>
@@ -2104,7 +2331,7 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="22"/>
@@ -2114,23 +2341,23 @@
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="24" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="22"/>
@@ -2140,7 +2367,7 @@
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="22"/>
@@ -2150,7 +2377,7 @@
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="22"/>
@@ -2160,7 +2387,7 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="22"/>
@@ -2170,7 +2397,7 @@
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="22"/>
@@ -2180,7 +2407,7 @@
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="22"/>
@@ -2190,7 +2417,7 @@
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="22"/>
@@ -2200,16 +2427,16 @@
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,29 +2459,29 @@
         <v>9</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="21"/>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="22"/>
@@ -2263,10 +2490,10 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="22"/>
@@ -2275,24 +2502,24 @@
     <row r="47" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="25"/>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="22"/>
@@ -2302,7 +2529,7 @@
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="22"/>
@@ -2312,23 +2539,23 @@
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="24" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="22"/>
@@ -2338,7 +2565,7 @@
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="22"/>
@@ -2348,7 +2575,7 @@
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="22"/>
@@ -2358,7 +2585,7 @@
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="22"/>
@@ -2368,7 +2595,7 @@
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="22"/>
@@ -2378,7 +2605,7 @@
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="22"/>
@@ -2388,7 +2615,7 @@
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="22"/>
@@ -2398,16 +2625,16 @@
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2434,29 +2661,29 @@
         <v>10</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="23"/>
       <c r="C63" s="21"/>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="22"/>
@@ -2465,10 +2692,10 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="23"/>
       <c r="C64" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="22"/>
@@ -2477,26 +2704,26 @@
     <row r="65" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B65" s="23"/>
       <c r="C65" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="23"/>
       <c r="C66" s="25"/>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="23"/>
       <c r="C67" s="23" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="22"/>
@@ -2505,10 +2732,10 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" s="23"/>
       <c r="C68" s="23" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="22"/>
@@ -2518,7 +2745,7 @@
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
       <c r="D69" s="24" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="22"/>
@@ -2528,7 +2755,7 @@
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="22"/>
@@ -2538,7 +2765,7 @@
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
       <c r="D71" s="36" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="22"/>
@@ -2548,7 +2775,7 @@
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="22"/>
@@ -2558,7 +2785,7 @@
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
       <c r="D73" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="22"/>
@@ -2568,7 +2795,7 @@
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="22"/>
@@ -2578,7 +2805,7 @@
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="22"/>
@@ -2588,7 +2815,7 @@
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="22"/>
@@ -2598,16 +2825,16 @@
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
       <c r="D77" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,29 +2861,29 @@
         <v>11</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" s="23"/>
       <c r="C81" s="21"/>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="22"/>
@@ -2665,10 +2892,10 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" s="23"/>
       <c r="C82" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="22"/>
@@ -2676,24 +2903,24 @@
     <row r="83" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B83" s="23"/>
       <c r="C83" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="23"/>
       <c r="C84" s="25"/>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="22"/>
@@ -2703,7 +2930,7 @@
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
       <c r="D86" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="22"/>
@@ -2713,7 +2940,7 @@
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
       <c r="D87" s="24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="22"/>
@@ -2723,7 +2950,7 @@
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="22"/>
@@ -2733,7 +2960,7 @@
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
       <c r="D89" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="22"/>
@@ -2743,7 +2970,7 @@
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="22"/>
@@ -2753,7 +2980,7 @@
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
       <c r="D91" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="22"/>
@@ -2763,7 +2990,7 @@
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="22"/>
@@ -2773,7 +3000,7 @@
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="22"/>
@@ -2783,7 +3010,7 @@
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="22"/>
@@ -2793,16 +3020,16 @@
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
       <c r="D95" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2824,34 +3051,34 @@
       <c r="F97" s="22"/>
       <c r="G97" s="32"/>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" s="23"/>
       <c r="C99" s="21"/>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="22"/>
@@ -2860,10 +3087,10 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100" s="23"/>
       <c r="C100" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E100" s="7"/>
       <c r="F100" s="22"/>
@@ -2871,7 +3098,7 @@
     <row r="101" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B101" s="23"/>
       <c r="C101" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D101" s="4">
         <v>123654</v>
@@ -2881,7 +3108,7 @@
       <c r="B102" s="23"/>
       <c r="C102" s="25"/>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2898,7 +3125,7 @@
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
       <c r="D104" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="22"/>
@@ -2908,7 +3135,7 @@
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
       <c r="D105" s="24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="22"/>
@@ -2918,7 +3145,7 @@
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="22"/>
@@ -2928,7 +3155,7 @@
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="22"/>
@@ -2938,7 +3165,7 @@
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
       <c r="D108" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="22"/>
@@ -2948,7 +3175,7 @@
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="22"/>
@@ -2958,7 +3185,7 @@
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="22"/>
@@ -2968,7 +3195,7 @@
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
       <c r="D111" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="22"/>
@@ -2978,7 +3205,7 @@
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
       <c r="D112" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="22"/>
@@ -2988,19 +3215,19 @@
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I113" s="41" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,32 +3247,32 @@
     </row>
     <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="23"/>
       <c r="C117" s="21"/>
       <c r="D117" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="22"/>
@@ -3054,10 +3281,10 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="23"/>
       <c r="C118" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="22"/>
@@ -3065,24 +3292,24 @@
     <row r="119" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B119" s="23"/>
       <c r="C119" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B120" s="23"/>
       <c r="C120" s="25"/>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
       <c r="D121" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="22"/>
@@ -3092,7 +3319,7 @@
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
       <c r="D122" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="22"/>
@@ -3102,7 +3329,7 @@
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
       <c r="D123" s="24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="22"/>
@@ -3112,7 +3339,7 @@
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="22"/>
@@ -3122,7 +3349,7 @@
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="22"/>
@@ -3132,7 +3359,7 @@
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
       <c r="D126" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="22"/>
@@ -3150,7 +3377,7 @@
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
       <c r="D128" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="22"/>
@@ -3168,7 +3395,7 @@
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
       <c r="D130" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="22"/>
@@ -3178,16 +3405,16 @@
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
       <c r="D131" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3211,32 +3438,32 @@
     </row>
     <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="23"/>
       <c r="C135" s="21"/>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="22"/>
@@ -3245,10 +3472,10 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="23"/>
       <c r="C136" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="22"/>
@@ -3256,24 +3483,24 @@
     <row r="137" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B137" s="23"/>
       <c r="C137" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B138" s="23"/>
       <c r="C138" s="25"/>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
       <c r="D139" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="22"/>
@@ -3283,7 +3510,7 @@
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
       <c r="D140" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="22"/>
@@ -3293,7 +3520,7 @@
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
       <c r="D141" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="22"/>
@@ -3303,7 +3530,7 @@
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
       <c r="D142" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="22"/>
@@ -3313,7 +3540,7 @@
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
       <c r="D143" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="22"/>
@@ -3323,7 +3550,7 @@
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
       <c r="D144" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="22"/>
@@ -3333,7 +3560,7 @@
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
       <c r="D145" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="22"/>
@@ -3343,7 +3570,7 @@
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
       <c r="D146" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E146" s="7"/>
       <c r="F146" s="22"/>
@@ -3353,7 +3580,7 @@
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
       <c r="D147" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="22"/>
@@ -3363,7 +3590,7 @@
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
       <c r="D148" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="22"/>
@@ -3373,16 +3600,16 @@
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3406,32 +3633,32 @@
     </row>
     <row r="152" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" s="23"/>
       <c r="C153" s="21"/>
       <c r="D153" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="22"/>
@@ -3440,10 +3667,10 @@
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" s="23"/>
       <c r="C154" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="22"/>
@@ -3451,24 +3678,24 @@
     <row r="155" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B155" s="23"/>
       <c r="C155" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="23"/>
       <c r="C156" s="25"/>
       <c r="D156" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
       <c r="D157" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="22"/>
@@ -3478,7 +3705,7 @@
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
       <c r="D158" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="22"/>
@@ -3488,7 +3715,7 @@
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
       <c r="D159" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="22"/>
@@ -3498,7 +3725,7 @@
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
       <c r="D160" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="22"/>
@@ -3508,7 +3735,7 @@
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
       <c r="D161" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E161" s="7"/>
       <c r="F161" s="22"/>
@@ -3518,7 +3745,7 @@
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
       <c r="D162" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="22"/>
@@ -3528,7 +3755,7 @@
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
       <c r="D163" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="22"/>
@@ -3538,7 +3765,7 @@
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
       <c r="D164" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="22"/>
@@ -3548,7 +3775,7 @@
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
       <c r="D165" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="22"/>
@@ -3558,7 +3785,7 @@
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
       <c r="D166" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="22"/>
@@ -3568,16 +3795,16 @@
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
       <c r="D167" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3601,32 +3828,32 @@
     </row>
     <row r="170" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="23"/>
       <c r="C171" s="21"/>
       <c r="D171" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="22"/>
@@ -3635,10 +3862,10 @@
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B172" s="23"/>
       <c r="C172" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D172" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="22"/>
@@ -3646,24 +3873,24 @@
     <row r="173" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B173" s="23"/>
       <c r="C173" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B174" s="23"/>
       <c r="C174" s="25"/>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
       <c r="D175" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="22"/>
@@ -3673,7 +3900,7 @@
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
       <c r="D176" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="22"/>
@@ -3683,7 +3910,7 @@
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
       <c r="D177" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="22"/>
@@ -3693,7 +3920,7 @@
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
       <c r="D178" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="22"/>
@@ -3703,7 +3930,7 @@
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
       <c r="D179" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="22"/>
@@ -3713,7 +3940,7 @@
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
       <c r="D180" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="22"/>
@@ -3723,7 +3950,7 @@
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
       <c r="D181" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="22"/>
@@ -3733,7 +3960,7 @@
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
       <c r="D182" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E182" s="7"/>
       <c r="F182" s="22"/>
@@ -3743,7 +3970,7 @@
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
       <c r="D183" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="22"/>
@@ -3753,7 +3980,7 @@
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
       <c r="D184" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="22"/>
@@ -3763,16 +3990,16 @@
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
       <c r="D185" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -3796,32 +4023,32 @@
     </row>
     <row r="188" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B189" s="23"/>
       <c r="C189" s="21"/>
       <c r="D189" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="22"/>
@@ -3830,10 +4057,10 @@
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B190" s="23"/>
       <c r="C190" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="22"/>
@@ -3841,17 +4068,17 @@
     <row r="191" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B191" s="23"/>
       <c r="C191" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B192" s="23"/>
       <c r="C192" s="25"/>
       <c r="D192" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H192" s="34"/>
     </row>
@@ -3859,7 +4086,7 @@
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
       <c r="D193" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="22"/>
@@ -3869,7 +4096,7 @@
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
       <c r="D194" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="22"/>
@@ -3879,7 +4106,7 @@
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
       <c r="D195" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="22"/>
@@ -3889,7 +4116,7 @@
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="22"/>
@@ -3899,7 +4126,7 @@
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
       <c r="D197" s="36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="22"/>
@@ -3909,7 +4136,7 @@
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
       <c r="D198" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="22"/>
@@ -3919,7 +4146,7 @@
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
       <c r="D199" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E199" s="7"/>
       <c r="F199" s="22"/>
@@ -3929,7 +4156,7 @@
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
       <c r="D200" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="22"/>
@@ -3939,7 +4166,7 @@
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
       <c r="D201" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="22"/>
@@ -3949,7 +4176,7 @@
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
       <c r="D202" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="22"/>
@@ -3959,16 +4186,16 @@
       <c r="B203" s="23"/>
       <c r="C203" s="23"/>
       <c r="D203" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -3988,32 +4215,32 @@
     </row>
     <row r="206" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="42" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B207" s="23"/>
       <c r="C207" s="21"/>
       <c r="D207" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="22"/>
@@ -4022,10 +4249,10 @@
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B208" s="23"/>
       <c r="C208" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D208" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E208" s="7"/>
       <c r="F208" s="22"/>
@@ -4033,24 +4260,24 @@
     <row r="209" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B209" s="23"/>
       <c r="C209" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B210" s="23"/>
       <c r="C210" s="25"/>
       <c r="D210" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B211" s="23"/>
       <c r="C211" s="23"/>
       <c r="D211" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="22"/>
@@ -4060,7 +4287,7 @@
       <c r="B212" s="23"/>
       <c r="C212" s="23"/>
       <c r="D212" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="22"/>
@@ -4070,7 +4297,7 @@
       <c r="B213" s="23"/>
       <c r="C213" s="23"/>
       <c r="D213" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E213" s="7"/>
       <c r="F213" s="22"/>
@@ -4080,7 +4307,7 @@
       <c r="B214" s="23"/>
       <c r="C214" s="23"/>
       <c r="D214" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="22"/>
@@ -4100,7 +4327,7 @@
       <c r="B216" s="23"/>
       <c r="C216" s="23"/>
       <c r="D216" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="22"/>
@@ -4110,7 +4337,7 @@
       <c r="B217" s="23"/>
       <c r="C217" s="23"/>
       <c r="D217" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="22"/>
@@ -4120,7 +4347,7 @@
       <c r="B218" s="23"/>
       <c r="C218" s="23"/>
       <c r="D218" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="22"/>
@@ -4130,7 +4357,7 @@
       <c r="B219" s="23"/>
       <c r="C219" s="23"/>
       <c r="D219" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="22"/>
@@ -4140,7 +4367,7 @@
       <c r="B220" s="23"/>
       <c r="C220" s="23"/>
       <c r="D220" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="22"/>
@@ -4150,19 +4377,19 @@
       <c r="B221" s="23"/>
       <c r="C221" s="23"/>
       <c r="D221" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F221" s="22" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="F221" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I221" s="50" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -4182,32 +4409,32 @@
     </row>
     <row r="224" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="42" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F224" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B225" s="23"/>
       <c r="C225" s="21"/>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="22"/>
@@ -4216,10 +4443,10 @@
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B226" s="23"/>
       <c r="C226" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D226" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="22"/>
@@ -4227,24 +4454,24 @@
     <row r="227" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B227" s="23"/>
       <c r="C227" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B228" s="23"/>
       <c r="C228" s="25"/>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B229" s="23"/>
       <c r="C229" s="23"/>
       <c r="D229" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="22"/>
@@ -4254,7 +4481,7 @@
       <c r="B230" s="23"/>
       <c r="C230" s="23"/>
       <c r="D230" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="22"/>
@@ -4264,7 +4491,7 @@
       <c r="B231" s="23"/>
       <c r="C231" s="23"/>
       <c r="D231" s="24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E231" s="7"/>
       <c r="F231" s="22"/>
@@ -4274,7 +4501,7 @@
       <c r="B232" s="23"/>
       <c r="C232" s="23"/>
       <c r="D232" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="22"/>
@@ -4284,7 +4511,7 @@
       <c r="B233" s="23"/>
       <c r="C233" s="23"/>
       <c r="D233" s="36" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="22"/>
@@ -4294,7 +4521,7 @@
       <c r="B234" s="23"/>
       <c r="C234" s="23"/>
       <c r="D234" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E234" s="7"/>
       <c r="F234" s="22"/>
@@ -4304,7 +4531,7 @@
       <c r="B235" s="23"/>
       <c r="C235" s="23"/>
       <c r="D235" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E235" s="7"/>
       <c r="F235" s="22"/>
@@ -4314,7 +4541,7 @@
       <c r="B236" s="23"/>
       <c r="C236" s="23"/>
       <c r="D236" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E236" s="7"/>
       <c r="F236" s="22"/>
@@ -4324,7 +4551,7 @@
       <c r="B237" s="23"/>
       <c r="C237" s="23"/>
       <c r="D237" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E237" s="7"/>
       <c r="F237" s="22"/>
@@ -4334,7 +4561,7 @@
       <c r="B238" s="23"/>
       <c r="C238" s="23"/>
       <c r="D238" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="22"/>
@@ -4344,19 +4571,19 @@
       <c r="B239" s="23"/>
       <c r="C239" s="23"/>
       <c r="D239" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I239" s="50" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -4376,32 +4603,32 @@
     </row>
     <row r="242" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A242" s="51" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C242" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F242" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G242" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B243" s="23"/>
       <c r="C243" s="21"/>
       <c r="D243" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E243" s="7"/>
       <c r="F243" s="22"/>
@@ -4410,10 +4637,10 @@
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B244" s="23"/>
       <c r="C244" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D244" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E244" s="7"/>
       <c r="F244" s="22"/>
@@ -4421,24 +4648,24 @@
     <row r="245" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B245" s="23"/>
       <c r="C245" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B246" s="23"/>
       <c r="C246" s="25"/>
       <c r="D246" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B247" s="23"/>
       <c r="C247" s="23"/>
       <c r="D247" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E247" s="7"/>
       <c r="F247" s="22"/>
@@ -4448,7 +4675,7 @@
       <c r="B248" s="23"/>
       <c r="C248" s="23"/>
       <c r="D248" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="22"/>
@@ -4458,7 +4685,7 @@
       <c r="B249" s="23"/>
       <c r="C249" s="23"/>
       <c r="D249" s="24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E249" s="7"/>
       <c r="F249" s="22"/>
@@ -4468,7 +4695,7 @@
       <c r="B250" s="23"/>
       <c r="C250" s="23"/>
       <c r="D250" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E250" s="7"/>
       <c r="F250" s="22"/>
@@ -4478,7 +4705,7 @@
       <c r="B251" s="23"/>
       <c r="C251" s="23"/>
       <c r="D251" s="36" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E251" s="7"/>
       <c r="F251" s="22"/>
@@ -4488,7 +4715,7 @@
       <c r="B252" s="23"/>
       <c r="C252" s="23"/>
       <c r="D252" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="22"/>
@@ -4498,7 +4725,7 @@
       <c r="B253" s="23"/>
       <c r="C253" s="23"/>
       <c r="D253" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="22"/>
@@ -4508,7 +4735,7 @@
       <c r="B254" s="23"/>
       <c r="C254" s="23"/>
       <c r="D254" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E254" s="7"/>
       <c r="F254" s="22"/>
@@ -4518,7 +4745,7 @@
       <c r="B255" s="23"/>
       <c r="C255" s="23"/>
       <c r="D255" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E255" s="7"/>
       <c r="F255" s="22"/>
@@ -4528,7 +4755,7 @@
       <c r="B256" s="23"/>
       <c r="C256" s="23"/>
       <c r="D256" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E256" s="7"/>
       <c r="F256" s="22"/>
@@ -4538,16 +4765,16 @@
       <c r="B257" s="23"/>
       <c r="C257" s="23"/>
       <c r="D257" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F257" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I257" s="50"/>
     </row>
@@ -4584,11 +4811,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6FD613-A997-4E59-9696-4356B570E0EC}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,39 +4839,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="22"/>
@@ -4655,7 +4882,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="21"/>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="22"/>
@@ -4664,10 +4891,10 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="22"/>
@@ -4676,23 +4903,23 @@
     <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="C6" s="25"/>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4">
         <v>55588520</v>
@@ -4705,7 +4932,7 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="22"/>
@@ -4713,7 +4940,9 @@
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="D9" s="4">
         <v>12365</v>
       </c>
@@ -4725,7 +4954,7 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="55" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="22"/>
@@ -4735,7 +4964,7 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="54" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="22"/>
@@ -4745,13 +4974,13 @@
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="22"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4766,16 +4995,16 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4821,16 +5050,16 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="22"/>
@@ -4842,7 +5071,7 @@
       <c r="B21" s="23"/>
       <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="22"/>
@@ -4851,10 +5080,10 @@
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="22"/>
@@ -4863,10 +5092,10 @@
     <row r="23" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -4874,16 +5103,16 @@
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
       <c r="D24" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="23"/>
       <c r="C25" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="22"/>
@@ -4899,18 +5128,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4933,16 +5164,16 @@
     </row>
     <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="22"/>
@@ -4954,7 +5185,7 @@
       <c r="B31" s="23"/>
       <c r="C31" s="21"/>
       <c r="D31" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="22"/>
@@ -4963,10 +5194,10 @@
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="22"/>
@@ -4975,10 +5206,10 @@
     <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -4986,13 +5217,13 @@
       <c r="B34" s="23"/>
       <c r="C34" s="25"/>
       <c r="D34" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
@@ -5009,18 +5240,20 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="C37" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5028,11 +5261,11 @@
       <c r="C38" s="23"/>
       <c r="D38" s="4"/>
       <c r="E38" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5040,11 +5273,11 @@
       <c r="C39" s="23"/>
       <c r="D39" s="4"/>
       <c r="E39" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5067,16 +5300,16 @@
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E42" s="57"/>
       <c r="F42" s="22"/>
@@ -5088,7 +5321,7 @@
       <c r="B43" s="23"/>
       <c r="C43" s="21"/>
       <c r="D43" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="22"/>
@@ -5097,10 +5330,10 @@
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="22"/>
@@ -5109,10 +5342,10 @@
     <row r="45" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H45" s="7"/>
     </row>
@@ -5120,16 +5353,16 @@
       <c r="B46" s="23"/>
       <c r="C46" s="25"/>
       <c r="D46" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="22"/>
@@ -5145,18 +5378,20 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="C49" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5164,11 +5399,11 @@
       <c r="C50" s="23"/>
       <c r="D50" s="4"/>
       <c r="E50" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,16 +5441,16 @@
     </row>
     <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="22"/>
@@ -5234,10 +5469,10 @@
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="23"/>
       <c r="C57" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="22"/>
@@ -5246,10 +5481,10 @@
     <row r="58" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
       <c r="C58" s="37" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -5257,16 +5492,16 @@
       <c r="B59" s="23"/>
       <c r="C59" s="25"/>
       <c r="D59" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
       <c r="C60" s="23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="22"/>
@@ -5282,18 +5517,20 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="C62" s="23" t="s">
+        <v>156</v>
+      </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5301,11 +5538,11 @@
       <c r="C63" s="23"/>
       <c r="D63" s="4"/>
       <c r="E63" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5341,6 +5578,143 @@
       <c r="E67" s="7"/>
       <c r="F67" s="22"/>
     </row>
+    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" s="57"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="34"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="23"/>
+      <c r="C70" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="22"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="23"/>
+      <c r="C71" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="23"/>
+      <c r="C73" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5348,15 +5722,462 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4268E-A0EA-418C-851A-8769F88B1AD2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300AEA43-3793-4A8B-8827-B96A2AFFF8F9}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19">
+        <v>555123321</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4268E-A0EA-418C-851A-8769F88B1AD2}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>